--- a/snakegame_v1/Product Backlog.xlsx
+++ b/snakegame_v1/Product Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://scuonline-my.sharepoint.com/personal/p_pundir_10_student_scu_edu_au/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bhubneshwarchandel/Desktop/Github/snakegame_v1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="8_{5A72AAD7-ABD2-3C4B-96AB-FFB782214E29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4841D712-BE30-BC43-AF0C-BBAC1C1DB569}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76AB04C-529B-BA4D-84CE-23115B51B53D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{49C32462-D2B8-4175-AE19-832EFB3F644D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{49C32462-D2B8-4175-AE19-832EFB3F644D}"/>
   </bookViews>
   <sheets>
     <sheet name="User stories" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="66">
   <si>
     <t>Week 9</t>
   </si>
@@ -151,9 +151,6 @@
     <t xml:space="preserve">the gameboard window to close </t>
   </si>
   <si>
-    <t>the gameboard to be visible on the screen</t>
-  </si>
-  <si>
     <t>the game board to be of black color</t>
   </si>
   <si>
@@ -221,6 +218,12 @@
   </si>
   <si>
     <t>the game to be over if the snake touches border</t>
+  </si>
+  <si>
+    <t>Snake Logic</t>
+  </si>
+  <si>
+    <t>Gameboard Logic</t>
   </si>
 </sst>
 </file>
@@ -383,12 +386,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -396,6 +393,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -710,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F2A6E6-5A3B-4CAD-BC9F-023E52339F74}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -730,40 +733,40 @@
       <c r="A1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="34"/>
+      <c r="C1" s="39"/>
       <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="34"/>
+      <c r="C2" s="39"/>
       <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="34"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="29"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="35"/>
+      <c r="B4" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="40"/>
       <c r="D4" s="30"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -807,7 +810,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -815,7 +818,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -831,7 +834,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -839,21 +842,21 @@
         <v>6</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C15" s="8">
+      <c r="C15" s="8"/>
+      <c r="D15" s="34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C16" s="8">
         <v>7</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C16" s="8"/>
-      <c r="D16" s="36" t="s">
-        <v>39</v>
+      <c r="D16" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.2">
@@ -861,7 +864,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.2">
@@ -869,7 +872,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.2">
@@ -877,7 +880,7 @@
         <v>10</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.2">
@@ -885,7 +888,7 @@
         <v>11</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.2">
@@ -893,33 +896,25 @@
         <v>12</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C22" s="8">
+      <c r="C22" s="8"/>
+      <c r="D22" s="34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C23" s="8">
         <v>13</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D23" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C23" s="8"/>
-      <c r="D23" s="36" t="s">
-        <v>43</v>
-      </c>
-    </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C24" s="8">
-        <v>14</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D25" s="18"/>
+      <c r="D24" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -934,10 +929,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDA2708-75B5-4180-9C4B-08F40A18D95A}">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -985,7 +980,7 @@
         <v>33</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -1143,7 +1138,7 @@
       <c r="D13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="37">
+      <c r="F13" s="35">
         <v>1</v>
       </c>
       <c r="G13" s="6"/>
@@ -1209,9 +1204,9 @@
       <c r="B19" s="6"/>
       <c r="C19" s="2"/>
       <c r="D19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F19" s="37">
+        <v>59</v>
+      </c>
+      <c r="F19" s="35">
         <v>1</v>
       </c>
       <c r="G19" s="6"/>
@@ -1223,10 +1218,10 @@
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B20" s="6"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" s="37"/>
+      <c r="D20" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="35"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -1238,10 +1233,10 @@
         <v>31</v>
       </c>
       <c r="B21" s="6"/>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="39">
+      <c r="G21" s="37">
         <v>0.2</v>
       </c>
       <c r="H21" s="6"/>
@@ -1254,7 +1249,7 @@
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -1265,72 +1260,72 @@
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="D23" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
       <c r="D24" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" s="40">
+      <c r="G25" s="38">
         <v>0.2</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="12"/>
       <c r="D26" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
       <c r="D27" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="12"/>
       <c r="D28" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="G29" s="40">
+      <c r="G29" s="38">
         <v>0.2</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="12"/>
       <c r="D30" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
-      <c r="D31" s="36"/>
+      <c r="D31" s="34"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="12"/>
-      <c r="D32" s="36"/>
+      <c r="D32" s="34"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
-      <c r="D33" s="36"/>
+      <c r="D33" s="34"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
@@ -1347,24 +1342,52 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>46</v>
-      </c>
-      <c r="F36" s="37">
+      <c r="A36" s="9"/>
+      <c r="B36" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="9">
+      <c r="A37" s="9"/>
+      <c r="B37" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="14">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B38" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="F38" s="14">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B39" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="F39" s="14">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="9">
         <v>5</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B40" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E40" s="8">
         <v>4</v>
       </c>
-      <c r="F37" s="14">
+      <c r="F40" s="14">
         <v>0</v>
       </c>
     </row>

--- a/snakegame_v1/Product Backlog.xlsx
+++ b/snakegame_v1/Product Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bhubneshwarchandel/Desktop/Github/snakegame_v1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76AB04C-529B-BA4D-84CE-23115B51B53D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36E337A-32E6-4345-B887-892A6F8A129E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{49C32462-D2B8-4175-AE19-832EFB3F644D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" activeTab="1" xr2:uid="{49C32462-D2B8-4175-AE19-832EFB3F644D}"/>
   </bookViews>
   <sheets>
     <sheet name="User stories" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
   <si>
     <t>Week 9</t>
   </si>
@@ -224,6 +224,12 @@
   </si>
   <si>
     <t>Gameboard Logic</t>
+  </si>
+  <si>
+    <t>Added Jframe with Jpanel</t>
+  </si>
+  <si>
+    <t>Added Components to Jpanel</t>
   </si>
 </sst>
 </file>
@@ -715,7 +721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F2A6E6-5A3B-4CAD-BC9F-023E52339F74}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -929,10 +935,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDA2708-75B5-4180-9C4B-08F40A18D95A}">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -940,7 +946,7 @@
     <col min="1" max="1" width="15" style="11" customWidth="1"/>
     <col min="2" max="2" width="46.5" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1"/>
     <col min="5" max="6" width="8" style="8" customWidth="1"/>
     <col min="7" max="7" width="8.5" customWidth="1"/>
     <col min="8" max="8" width="9.1640625" customWidth="1"/>
@@ -1125,41 +1131,42 @@
         <v>23</v>
       </c>
       <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="H12" s="37">
+        <v>1</v>
+      </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="6"/>
+      <c r="A13" s="12"/>
       <c r="D13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="35">
+        <v>66</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="37">
         <v>1</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="12"/>
-      <c r="D14" s="2"/>
+      <c r="D14" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="H14" s="37">
+        <v>1</v>
+      </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
-      <c r="B15" s="6"/>
-      <c r="D15" s="2"/>
+      <c r="D15" s="5"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -1167,9 +1174,16 @@
       <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
+      <c r="A16" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="B16" s="6"/>
-      <c r="D16" s="2"/>
+      <c r="D16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="35">
+        <v>1</v>
+      </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -1178,7 +1192,6 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
-      <c r="B17" s="6"/>
       <c r="D17" s="2"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -1187,13 +1200,9 @@
       <c r="K17" s="6"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="11">
-        <v>3.2</v>
-      </c>
+      <c r="A18" s="12"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="D18" s="2"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -1201,14 +1210,9 @@
       <c r="K18" s="6"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="12"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="35">
-        <v>1</v>
-      </c>
+      <c r="D19" s="2"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -1216,12 +1220,9 @@
       <c r="K19" s="6"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="12"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" s="35"/>
+      <c r="D20" s="2"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -1229,27 +1230,27 @@
       <c r="K20" s="6"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
-        <v>31</v>
+      <c r="A21" s="11">
+        <v>3.2</v>
       </c>
       <c r="B21" s="6"/>
-      <c r="D21" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="37">
-        <v>0.2</v>
-      </c>
+      <c r="C21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="5" t="s">
-        <v>48</v>
+      <c r="C22" s="2"/>
+      <c r="D22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="35">
+        <v>1</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -1258,136 +1259,187 @@
       <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
-      <c r="D23" s="5" t="s">
-        <v>49</v>
-      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="35"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
-      <c r="D24" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="A24" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="D24" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="37">
+        <v>0.2</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25" s="38">
-        <v>0.2</v>
-      </c>
+      <c r="A25" s="12"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="12"/>
       <c r="D26" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
       <c r="D27" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="12"/>
-      <c r="D28" s="5" t="s">
-        <v>55</v>
+      <c r="A28" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="38">
+        <v>0.2</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="G29" s="38">
-        <v>0.2</v>
+      <c r="A29" s="12"/>
+      <c r="D29" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="12"/>
       <c r="D30" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
-      <c r="D31" s="34"/>
+      <c r="D31" s="5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
-      <c r="D32" s="34"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="38">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
-      <c r="D33" s="34"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="9">
+      <c r="D33" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="12"/>
+      <c r="D34" s="34"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="12"/>
+      <c r="D35" s="34"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="12"/>
+      <c r="D36" s="34"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="9">
         <v>4</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B38" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E38" s="9">
         <v>3</v>
-      </c>
-      <c r="F35" s="14">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="9"/>
-      <c r="B36" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="9"/>
-      <c r="B37" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="14">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B38" s="34" t="s">
-        <v>65</v>
       </c>
       <c r="F38" s="14">
         <v>0.1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="9"/>
       <c r="B39" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="9"/>
+      <c r="B40" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="9"/>
+      <c r="F40" s="14">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B41" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="F41" s="14">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B42" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="F39" s="14">
+      <c r="F42" s="14">
         <v>0.1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="9">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B43" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="F43" s="14"/>
+      <c r="H43" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="9">
         <v>5</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B44" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E44" s="8">
         <v>4</v>
       </c>
-      <c r="F40" s="14">
+      <c r="F44" s="14">
         <v>0</v>
       </c>
     </row>

--- a/snakegame_v1/Product Backlog.xlsx
+++ b/snakegame_v1/Product Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bhubneshwarchandel/Desktop/Github/snakegame_v1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36E337A-32E6-4345-B887-892A6F8A129E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334FEE2A-63BA-924C-A35F-C614CD9CAC12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" activeTab="1" xr2:uid="{49C32462-D2B8-4175-AE19-832EFB3F644D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="1" xr2:uid="{49C32462-D2B8-4175-AE19-832EFB3F644D}"/>
   </bookViews>
   <sheets>
     <sheet name="User stories" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="70">
   <si>
     <t>Week 9</t>
   </si>
@@ -202,9 +202,6 @@
     <t>Prey Logic</t>
   </si>
   <si>
-    <t xml:space="preserve">Location </t>
-  </si>
-  <si>
     <t>Loginform</t>
   </si>
   <si>
@@ -230,6 +227,15 @@
   </si>
   <si>
     <t>Added Components to Jpanel</t>
+  </si>
+  <si>
+    <t>Random Location</t>
+  </si>
+  <si>
+    <t>Timer</t>
+  </si>
+  <si>
+    <t>Storing the snake body</t>
   </si>
 </sst>
 </file>
@@ -840,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -862,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.2">
@@ -878,7 +884,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.2">
@@ -935,10 +941,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDA2708-75B5-4180-9C4B-08F40A18D95A}">
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1141,7 +1147,7 @@
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="D13" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="37">
@@ -1154,7 +1160,7 @@
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="12"/>
       <c r="D14" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="37">
@@ -1247,7 +1253,7 @@
       <c r="B22" s="6"/>
       <c r="C22" s="2"/>
       <c r="D22" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F22" s="35">
         <v>1</v>
@@ -1262,7 +1268,7 @@
       <c r="B23" s="6"/>
       <c r="C23" s="2"/>
       <c r="D23" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F23" s="35"/>
       <c r="G23" s="6"/>
@@ -1284,162 +1290,234 @@
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
+      <c r="J24" s="37">
+        <v>1</v>
+      </c>
       <c r="K24" s="6"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
       <c r="D25" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G25" s="6"/>
+        <v>69</v>
+      </c>
+      <c r="G25" s="37"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
+      <c r="J25" s="37">
+        <v>1</v>
+      </c>
       <c r="K25" s="6"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="12"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
       <c r="D26" s="5" t="s">
-        <v>49</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="37">
+        <v>1</v>
+      </c>
+      <c r="J26" s="37"/>
+      <c r="K26" s="6"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
       <c r="D27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J27" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="12"/>
+      <c r="D28" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="s">
+      <c r="J28" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="D29" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="G28" s="38">
+      <c r="G29" s="38">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="12"/>
-      <c r="D29" s="5" t="s">
-        <v>53</v>
+      <c r="J29" s="38">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="12"/>
       <c r="D30" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="I30" s="38">
+        <v>0.2</v>
+      </c>
+      <c r="J30" s="38">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="D31" s="5" t="s">
-        <v>55</v>
+        <v>68</v>
+      </c>
+      <c r="J31" s="38">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="G32" s="38">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="12"/>
+      <c r="D32" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J32" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
       <c r="D33" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="12"/>
-      <c r="D34" s="34"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="J33" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34" s="38">
+        <v>0.2</v>
+      </c>
+      <c r="J34" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="12"/>
-      <c r="D35" s="34"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D35" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I35" s="38">
+        <v>0.7</v>
+      </c>
+      <c r="J35" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="12"/>
       <c r="D36" s="34"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="9">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="12"/>
+      <c r="D37" s="34"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="12"/>
+      <c r="D38" s="34"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="9">
         <v>4</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B40" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E40" s="9">
         <v>3</v>
       </c>
-      <c r="F38" s="14">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="9"/>
-      <c r="B39" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="9"/>
-      <c r="B40" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E40" s="9"/>
       <c r="F40" s="14">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J40" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="9"/>
       <c r="B41" s="34" t="s">
-        <v>65</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E41" s="9"/>
       <c r="F41" s="14">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="J41" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="9"/>
       <c r="B42" s="34" t="s">
-        <v>57</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="E42" s="9"/>
       <c r="F42" s="14">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J42" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B43" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="F43" s="14"/>
-      <c r="H43" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="9">
+        <v>64</v>
+      </c>
+      <c r="F43" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="J43" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B44" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="F44" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="J44" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B45" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F45" s="14"/>
+      <c r="H45" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="9">
         <v>5</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B46" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E46" s="8">
         <v>4</v>
       </c>
-      <c r="F44" s="14">
+      <c r="F46" s="14">
         <v>0</v>
       </c>
     </row>

--- a/snakegame_v1/Product Backlog.xlsx
+++ b/snakegame_v1/Product Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bhubneshwarchandel/Desktop/Github/snakegame_v1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334FEE2A-63BA-924C-A35F-C614CD9CAC12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA60D7AE-C2B4-314E-9F64-026E749F19A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="1" xr2:uid="{49C32462-D2B8-4175-AE19-832EFB3F644D}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="74">
   <si>
     <t>Week 9</t>
   </si>
@@ -236,6 +236,18 @@
   </si>
   <si>
     <t>Storing the snake body</t>
+  </si>
+  <si>
+    <t>Score Logic</t>
+  </si>
+  <si>
+    <t>3.2.4</t>
+  </si>
+  <si>
+    <t>Collision with snake head</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collision </t>
   </si>
 </sst>
 </file>
@@ -941,10 +953,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDA2708-75B5-4180-9C4B-08F40A18D95A}">
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1343,25 +1355,25 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="12"/>
+      <c r="D29" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I29" s="38">
+        <v>0.7</v>
+      </c>
+      <c r="J29" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="34" t="s">
+      <c r="D30" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="G29" s="38">
-        <v>0.2</v>
-      </c>
-      <c r="J29" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="12"/>
-      <c r="D30" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I30" s="38">
+      <c r="G30" s="38">
         <v>0.2</v>
       </c>
       <c r="J30" s="38">
@@ -1371,7 +1383,10 @@
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="D31" s="5" t="s">
-        <v>68</v>
+        <v>53</v>
+      </c>
+      <c r="I31" s="38">
+        <v>0.2</v>
       </c>
       <c r="J31" s="38">
         <v>1</v>
@@ -1380,106 +1395,119 @@
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="12"/>
       <c r="D32" s="5" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="J32" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
       <c r="D33" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J33" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="12"/>
+      <c r="D34" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="J33" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="12" t="s">
+      <c r="J34" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="34" t="s">
+      <c r="D35" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="G34" s="38">
+      <c r="G35" s="38">
         <v>0.2</v>
       </c>
-      <c r="J34" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="12"/>
-      <c r="D35" s="5" t="s">
+      <c r="J35" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="12"/>
+      <c r="D36" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="I35" s="38">
+      <c r="I36" s="38">
         <v>0.7</v>
       </c>
-      <c r="J35" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="12"/>
-      <c r="D36" s="34"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J36" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="12"/>
-      <c r="D37" s="34"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="12"/>
-      <c r="D38" s="34"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="9">
+      <c r="D37" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J37" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="J38" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="K38" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="12"/>
+      <c r="D39" s="34"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="9">
         <v>4</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B41" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E41" s="9">
         <v>3</v>
       </c>
-      <c r="F40" s="14">
+      <c r="F41" s="14">
         <v>0.1</v>
       </c>
-      <c r="J40" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="9"/>
-      <c r="B41" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="14">
-        <v>1</v>
-      </c>
       <c r="J41" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="9"/>
       <c r="B42" s="34" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="14">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J42" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="9"/>
       <c r="B43" s="34" t="s">
-        <v>64</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="E43" s="9"/>
       <c r="F43" s="14">
         <v>0.1</v>
       </c>
@@ -1487,9 +1515,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B44" s="34" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F44" s="14">
         <v>0.1</v>
@@ -1498,26 +1526,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B45" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="F45" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="J45" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B46" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="F45" s="14"/>
-      <c r="H45" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="9">
+      <c r="F46" s="14"/>
+      <c r="H46" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B47" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F47" s="14"/>
+      <c r="H47" s="38"/>
+      <c r="K47" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="9">
         <v>5</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B48" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E46" s="8">
+      <c r="E48" s="8">
         <v>4</v>
       </c>
-      <c r="F46" s="14">
+      <c r="F48" s="14">
         <v>0</v>
       </c>
     </row>
